--- a/fun_test/web/static/logs/shax_perf.xlsx
+++ b/fun_test/web/static/logs/shax_perf.xlsx
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1195,6 +1195,9 @@
       <c r="A30" t="s">
         <v>23</v>
       </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
@@ -1468,6 +1471,9 @@
     <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
